--- a/SchedulingData/dynamic9/pso/scheduling1_6.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling1_6.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>56.64</v>
+        <v>76</v>
       </c>
       <c r="E2" t="n">
-        <v>26.516</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="3">
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>48.6</v>
+        <v>55.24</v>
       </c>
       <c r="E3" t="n">
-        <v>25.84</v>
+        <v>26.656</v>
       </c>
     </row>
     <row r="4">
@@ -504,212 +504,212 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>53.4</v>
+        <v>71.7</v>
       </c>
       <c r="E4" t="n">
-        <v>25.86</v>
+        <v>26.96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>62.02</v>
+        <v>65.28</v>
       </c>
       <c r="E5" t="n">
-        <v>25.968</v>
+        <v>26.172</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>29.88</v>
+        <v>63.4</v>
       </c>
       <c r="E6" t="n">
-        <v>27.712</v>
+        <v>25.86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>56.64</v>
+        <v>76</v>
       </c>
       <c r="D7" t="n">
-        <v>96.48</v>
+        <v>123.16</v>
       </c>
       <c r="E7" t="n">
-        <v>23.172</v>
+        <v>22.984</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>65.28</v>
       </c>
       <c r="D8" t="n">
-        <v>63.68</v>
+        <v>126.7</v>
       </c>
       <c r="E8" t="n">
-        <v>27.272</v>
+        <v>22.14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>29.88</v>
+        <v>71.7</v>
       </c>
       <c r="D9" t="n">
-        <v>121.62</v>
+        <v>133.58</v>
       </c>
       <c r="E9" t="n">
-        <v>24.128</v>
+        <v>22.912</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>63.68</v>
+        <v>123.16</v>
       </c>
       <c r="D10" t="n">
-        <v>120.46</v>
+        <v>176.9</v>
       </c>
       <c r="E10" t="n">
-        <v>23.224</v>
+        <v>19.24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>96.48</v>
+        <v>176.9</v>
       </c>
       <c r="D11" t="n">
-        <v>149.18</v>
+        <v>215.48</v>
       </c>
       <c r="E11" t="n">
-        <v>19.032</v>
+        <v>16.512</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>48.6</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>131.92</v>
+        <v>69.52</v>
       </c>
       <c r="E12" t="n">
-        <v>21.108</v>
+        <v>26.208</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>53.4</v>
+        <v>126.7</v>
       </c>
       <c r="D13" t="n">
-        <v>123.8</v>
+        <v>210.32</v>
       </c>
       <c r="E13" t="n">
-        <v>21.44</v>
+        <v>17.408</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>121.62</v>
+        <v>215.48</v>
       </c>
       <c r="D14" t="n">
-        <v>188.42</v>
+        <v>262.78</v>
       </c>
       <c r="E14" t="n">
-        <v>20.048</v>
+        <v>12.912</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -717,89 +717,89 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>120.46</v>
+        <v>133.58</v>
       </c>
       <c r="D15" t="n">
-        <v>171.14</v>
+        <v>184.26</v>
       </c>
       <c r="E15" t="n">
-        <v>20.276</v>
+        <v>19.964</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>131.92</v>
+        <v>210.32</v>
       </c>
       <c r="D16" t="n">
-        <v>202.22</v>
+        <v>297.22</v>
       </c>
       <c r="E16" t="n">
-        <v>16.188</v>
+        <v>13.328</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>202.22</v>
+        <v>63.4</v>
       </c>
       <c r="D17" t="n">
-        <v>255.64</v>
+        <v>144</v>
       </c>
       <c r="E17" t="n">
-        <v>12.976</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C18" t="n">
+        <v>69.52</v>
+      </c>
+      <c r="D18" t="n">
         <v>123.8</v>
       </c>
-      <c r="D18" t="n">
-        <v>176.8</v>
-      </c>
       <c r="E18" t="n">
-        <v>17.78</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>62.02</v>
+        <v>144</v>
       </c>
       <c r="D19" t="n">
-        <v>144.02</v>
+        <v>216.5</v>
       </c>
       <c r="E19" t="n">
-        <v>22.368</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="20">
@@ -808,226 +808,226 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>176.8</v>
+        <v>184.26</v>
       </c>
       <c r="D20" t="n">
-        <v>238.96</v>
+        <v>227.68</v>
       </c>
       <c r="E20" t="n">
-        <v>15.184</v>
+        <v>16.752</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>149.18</v>
+        <v>55.24</v>
       </c>
       <c r="D21" t="n">
-        <v>198.4</v>
+        <v>103.24</v>
       </c>
       <c r="E21" t="n">
-        <v>15.24</v>
+        <v>22.996</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>255.64</v>
+        <v>216.5</v>
       </c>
       <c r="D22" t="n">
-        <v>309.38</v>
+        <v>250.68</v>
       </c>
       <c r="E22" t="n">
-        <v>9.231999999999999</v>
+        <v>14.472</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>198.4</v>
+        <v>262.78</v>
       </c>
       <c r="D23" t="n">
-        <v>239.62</v>
+        <v>318.38</v>
       </c>
       <c r="E23" t="n">
-        <v>12.248</v>
+        <v>7.992</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>144.02</v>
+        <v>227.68</v>
       </c>
       <c r="D24" t="n">
-        <v>243</v>
+        <v>269.8</v>
       </c>
       <c r="E24" t="n">
-        <v>18.54</v>
+        <v>14.16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>171.14</v>
+        <v>123.8</v>
       </c>
       <c r="D25" t="n">
-        <v>207.22</v>
+        <v>176.5</v>
       </c>
       <c r="E25" t="n">
-        <v>17.308</v>
+        <v>18.26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>239.62</v>
+        <v>176.5</v>
       </c>
       <c r="D26" t="n">
-        <v>305.52</v>
+        <v>212.82</v>
       </c>
       <c r="E26" t="n">
-        <v>6.788</v>
+        <v>15.268</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>243</v>
+        <v>103.24</v>
       </c>
       <c r="D27" t="n">
-        <v>314.1</v>
+        <v>144.48</v>
       </c>
       <c r="E27" t="n">
-        <v>15.5</v>
+        <v>19.512</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>207.22</v>
+        <v>212.82</v>
       </c>
       <c r="D28" t="n">
-        <v>262.22</v>
+        <v>268.7</v>
       </c>
       <c r="E28" t="n">
-        <v>13.928</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>188.42</v>
+        <v>250.68</v>
       </c>
       <c r="D29" t="n">
-        <v>240.44</v>
+        <v>342.42</v>
       </c>
       <c r="E29" t="n">
-        <v>17.456</v>
+        <v>10.888</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>240.44</v>
+        <v>144.48</v>
       </c>
       <c r="D30" t="n">
-        <v>317.94</v>
+        <v>202.28</v>
       </c>
       <c r="E30" t="n">
-        <v>13.816</v>
+        <v>15.352</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>238.96</v>
+        <v>268.7</v>
       </c>
       <c r="D31" t="n">
-        <v>293.24</v>
+        <v>323.7</v>
       </c>
       <c r="E31" t="n">
-        <v>11.376</v>
+        <v>8.92</v>
       </c>
     </row>
   </sheetData>
